--- a/data/negative_signals/Indirectly connected (A-X-B) - Latanoprost - Aplastic anaemia.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Latanoprost - Aplastic anaemia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="532">
   <si>
     <t>pathWeight</t>
   </si>
@@ -173,124 +173,478 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>125118</t>
+  </si>
+  <si>
+    <t>aplastic anemia</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>118380690</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>124536832</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>53418529</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>4041622</t>
+  </si>
+  <si>
+    <t>felis catus</t>
+  </si>
+  <si>
+    <t>8066251</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>71915310</t>
+  </si>
+  <si>
+    <t>53660691</t>
+  </si>
+  <si>
+    <t>3170822</t>
+  </si>
+  <si>
+    <t>acetazolamide</t>
+  </si>
+  <si>
+    <t>96308738</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>76957799</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>12947111</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>36011</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>104437291</t>
+  </si>
+  <si>
+    <t>52316356</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>39417339</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>75251481</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>71812667</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>65551480</t>
+  </si>
+  <si>
+    <t>108336624</t>
+  </si>
+  <si>
+    <t>102305153</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>53048743</t>
+  </si>
+  <si>
+    <t>102462539</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>86361203</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>105123280</t>
+  </si>
+  <si>
+    <t>61086449</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>52228785</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>61902182</t>
+  </si>
+  <si>
+    <t>51998630</t>
+  </si>
+  <si>
+    <t>5127262</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>79143922</t>
+  </si>
+  <si>
+    <t>13454683</t>
+  </si>
+  <si>
+    <t>82870641</t>
+  </si>
+  <si>
+    <t>453367</t>
+  </si>
+  <si>
+    <t>diclofenac sodium</t>
+  </si>
+  <si>
+    <t>113063506</t>
+  </si>
+  <si>
+    <t>113078553</t>
+  </si>
+  <si>
+    <t>14925846</t>
+  </si>
+  <si>
+    <t>4041441</t>
+  </si>
+  <si>
+    <t>diclofenac</t>
+  </si>
+  <si>
+    <t>61542866</t>
+  </si>
+  <si>
+    <t>69700944</t>
+  </si>
+  <si>
+    <t>14925834</t>
+  </si>
+  <si>
+    <t>3815757</t>
+  </si>
+  <si>
+    <t>treatment protocols</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>76715263</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>52543466</t>
+  </si>
+  <si>
+    <t>98941665</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>117772643</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>39417350</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>65514560</t>
+  </si>
+  <si>
+    <t>68809084</t>
+  </si>
+  <si>
+    <t>6107559</t>
+  </si>
+  <si>
+    <t>application procedure</t>
+  </si>
+  <si>
+    <t>98548613</t>
+  </si>
+  <si>
+    <t>56075789</t>
+  </si>
+  <si>
+    <t>2977165</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>131324923</t>
+  </si>
+  <si>
+    <t>113241711</t>
+  </si>
+  <si>
+    <t>63426008</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>119719036</t>
+  </si>
+  <si>
+    <t>114980276</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>84619580</t>
+  </si>
+  <si>
+    <t>72785808</t>
+  </si>
+  <si>
+    <t>52116099</t>
+  </si>
+  <si>
+    <t>78028000</t>
+  </si>
+  <si>
+    <t>75547674</t>
+  </si>
+  <si>
+    <t>56409693</t>
+  </si>
+  <si>
+    <t>122922177</t>
+  </si>
+  <si>
+    <t>55258401</t>
+  </si>
+  <si>
+    <t>105655527</t>
+  </si>
+  <si>
+    <t>68978721</t>
+  </si>
+  <si>
+    <t>307661</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>90972706</t>
+  </si>
+  <si>
+    <t>56851671</t>
+  </si>
+  <si>
+    <t>685378</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>126262530</t>
+  </si>
+  <si>
+    <t>80817577</t>
+  </si>
+  <si>
+    <t>60337693</t>
+  </si>
+  <si>
+    <t>112138189</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
     <t>4041592</t>
   </si>
   <si>
     <t>eye</t>
   </si>
   <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>125118</t>
-  </si>
-  <si>
-    <t>aplastic anemia</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>187621554</t>
+    <t>81173348</t>
+  </si>
+  <si>
+    <t>121477319</t>
   </si>
   <si>
     <t>disrupts</t>
   </si>
   <si>
-    <t>136020087</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>147548562</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>125573002</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>155466378</t>
+    <t>69651476</t>
+  </si>
+  <si>
+    <t>59161495</t>
+  </si>
+  <si>
+    <t>89310940</t>
   </si>
   <si>
     <t>is associated with</t>
   </si>
   <si>
-    <t>190466157</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>184593739</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>190676427</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>119741096</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>4041622</t>
-  </si>
-  <si>
-    <t>felis catus</t>
-  </si>
-  <si>
-    <t>138358822</t>
-  </si>
-  <si>
-    <t>74488771</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>119948214</t>
-  </si>
-  <si>
-    <t>3170822</t>
-  </si>
-  <si>
-    <t>acetazolamide</t>
-  </si>
-  <si>
-    <t>162510717</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>143443070</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>79344334</t>
-  </si>
-  <si>
-    <t>indicates</t>
+    <t>124324521</t>
+  </si>
+  <si>
+    <t>4034949</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>126421288</t>
+  </si>
+  <si>
+    <t>55856195</t>
+  </si>
+  <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>77292843</t>
+  </si>
+  <si>
+    <t>115152557</t>
+  </si>
+  <si>
+    <t>88140515</t>
+  </si>
+  <si>
+    <t>is not administered to</t>
+  </si>
+  <si>
+    <t>51741174</t>
+  </si>
+  <si>
+    <t>53010180</t>
+  </si>
+  <si>
+    <t>105150734</t>
+  </si>
+  <si>
+    <t>57919225</t>
+  </si>
+  <si>
+    <t>51332814</t>
+  </si>
+  <si>
+    <t>76233258</t>
+  </si>
+  <si>
+    <t>70057205</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>51949842</t>
+  </si>
+  <si>
+    <t>281347</t>
+  </si>
+  <si>
+    <t>long-term care</t>
+  </si>
+  <si>
+    <t>59579826</t>
+  </si>
+  <si>
+    <t>75918665</t>
+  </si>
+  <si>
+    <t>4048979</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>63140792</t>
+  </si>
+  <si>
+    <t>99809349</t>
+  </si>
+  <si>
+    <t>52393168</t>
   </si>
   <si>
     <t>133368</t>
@@ -299,130 +653,562 @@
     <t>homo sapiens</t>
   </si>
   <si>
-    <t>162211523</t>
-  </si>
-  <si>
-    <t>181260055</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>118980329</t>
-  </si>
-  <si>
-    <t>129696595</t>
-  </si>
-  <si>
-    <t>36011</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>170651155</t>
-  </si>
-  <si>
-    <t>118544117</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>119335352</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>168662106</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>168424442</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>141720423</t>
-  </si>
-  <si>
-    <t>171238747</t>
-  </si>
-  <si>
-    <t>152736225</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>131907157</t>
-  </si>
-  <si>
-    <t>138214476</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>105769190</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
-    <t>174515770</t>
-  </si>
-  <si>
-    <t>128288985</t>
-  </si>
-  <si>
-    <t>124087779</t>
-  </si>
-  <si>
-    <t>118474569</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>118277386</t>
-  </si>
-  <si>
-    <t>5127262</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>145546738</t>
-  </si>
-  <si>
-    <t>79676384</t>
-  </si>
-  <si>
-    <t>149338231</t>
-  </si>
-  <si>
-    <t>453367</t>
-  </si>
-  <si>
-    <t>diclofenac sodium</t>
-  </si>
-  <si>
-    <t>179299734</t>
-  </si>
-  <si>
-    <t>179284576</t>
-  </si>
-  <si>
-    <t>81144638</t>
+    <t>96076165</t>
+  </si>
+  <si>
+    <t>115062787</t>
+  </si>
+  <si>
+    <t>63230146</t>
+  </si>
+  <si>
+    <t>52694104</t>
+  </si>
+  <si>
+    <t>47573</t>
+  </si>
+  <si>
+    <t>cells</t>
+  </si>
+  <si>
+    <t>95476224</t>
+  </si>
+  <si>
+    <t>119083151</t>
+  </si>
+  <si>
+    <t>105773084</t>
+  </si>
+  <si>
+    <t>does not augment</t>
+  </si>
+  <si>
+    <t>55511352</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>57351894</t>
+  </si>
+  <si>
+    <t>58435725</t>
+  </si>
+  <si>
+    <t>51542884</t>
+  </si>
+  <si>
+    <t>61440612</t>
+  </si>
+  <si>
+    <t>54415668</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>118419444</t>
+  </si>
+  <si>
+    <t>113044647</t>
+  </si>
+  <si>
+    <t>62385576</t>
+  </si>
+  <si>
+    <t>82959229</t>
+  </si>
+  <si>
+    <t>52831467</t>
+  </si>
+  <si>
+    <t>617264</t>
+  </si>
+  <si>
+    <t>diarrhea</t>
+  </si>
+  <si>
+    <t>108014181</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>39552916</t>
+  </si>
+  <si>
+    <t>5127800</t>
+  </si>
+  <si>
+    <t>psychotherapy, multiple</t>
+  </si>
+  <si>
+    <t>86282733</t>
+  </si>
+  <si>
+    <t>97047844</t>
+  </si>
+  <si>
+    <t>53704865</t>
+  </si>
+  <si>
+    <t>4747186</t>
+  </si>
+  <si>
+    <t>apoptosis</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>119072456</t>
+  </si>
+  <si>
+    <t>101337380</t>
+  </si>
+  <si>
+    <t>119634067</t>
+  </si>
+  <si>
+    <t>3072277</t>
+  </si>
+  <si>
+    <t>antimicrobial susceptibility</t>
+  </si>
+  <si>
+    <t>130966287</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>88183131</t>
+  </si>
+  <si>
+    <t>59272732</t>
+  </si>
+  <si>
+    <t>2449184</t>
+  </si>
+  <si>
+    <t>tissue membrane</t>
+  </si>
+  <si>
+    <t>39417349</t>
+  </si>
+  <si>
+    <t>56076073</t>
+  </si>
+  <si>
+    <t>2395251</t>
+  </si>
+  <si>
+    <t>toxic effect</t>
+  </si>
+  <si>
+    <t>119083441</t>
+  </si>
+  <si>
+    <t>59864743</t>
+  </si>
+  <si>
+    <t>132609174</t>
+  </si>
+  <si>
+    <t>55597901</t>
+  </si>
+  <si>
+    <t>60806742</t>
+  </si>
+  <si>
+    <t>84565245</t>
+  </si>
+  <si>
+    <t>5317663</t>
+  </si>
+  <si>
+    <t>prednisolone</t>
+  </si>
+  <si>
+    <t>129913311</t>
+  </si>
+  <si>
+    <t>59580767</t>
+  </si>
+  <si>
+    <t>76530078</t>
+  </si>
+  <si>
+    <t>4028728</t>
+  </si>
+  <si>
+    <t>house mice</t>
+  </si>
+  <si>
+    <t>120975014</t>
+  </si>
+  <si>
+    <t>65277484</t>
+  </si>
+  <si>
+    <t>3763552</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>72155217</t>
+  </si>
+  <si>
+    <t>96969479</t>
+  </si>
+  <si>
+    <t>54429158</t>
+  </si>
+  <si>
+    <t>115041135</t>
+  </si>
+  <si>
+    <t>353736</t>
+  </si>
+  <si>
+    <t>wound healing</t>
+  </si>
+  <si>
+    <t>75939805</t>
+  </si>
+  <si>
+    <t>67559214</t>
+  </si>
+  <si>
+    <t>76818669</t>
+  </si>
+  <si>
+    <t>68474308</t>
+  </si>
+  <si>
+    <t>3208634</t>
+  </si>
+  <si>
+    <t>evaluation procedure</t>
+  </si>
+  <si>
+    <t>92682102</t>
+  </si>
+  <si>
+    <t>54385542</t>
+  </si>
+  <si>
+    <t>2979724</t>
+  </si>
+  <si>
+    <t>follow-up</t>
+  </si>
+  <si>
+    <t>111383195</t>
+  </si>
+  <si>
+    <t>78103216</t>
+  </si>
+  <si>
+    <t>237928</t>
+  </si>
+  <si>
+    <t>control groups</t>
+  </si>
+  <si>
+    <t>128313857</t>
+  </si>
+  <si>
+    <t>63242002</t>
+  </si>
+  <si>
+    <t>4824456</t>
+  </si>
+  <si>
+    <t>antigens</t>
+  </si>
+  <si>
+    <t>107602095</t>
+  </si>
+  <si>
+    <t>56617323</t>
+  </si>
+  <si>
+    <t>65112402</t>
+  </si>
+  <si>
+    <t>92424198</t>
+  </si>
+  <si>
+    <t>111084</t>
+  </si>
+  <si>
+    <t>genes</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>100488002</t>
+  </si>
+  <si>
+    <t>124485171</t>
+  </si>
+  <si>
+    <t>108167681</t>
+  </si>
+  <si>
+    <t>71465151</t>
+  </si>
+  <si>
+    <t>121905000</t>
+  </si>
+  <si>
+    <t>55124897</t>
+  </si>
+  <si>
+    <t>84764</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>64335574</t>
+  </si>
+  <si>
+    <t>63530972</t>
+  </si>
+  <si>
+    <t>54442196</t>
+  </si>
+  <si>
+    <t>837793</t>
+  </si>
+  <si>
+    <t>asians</t>
+  </si>
+  <si>
+    <t>117818256</t>
+  </si>
+  <si>
+    <t>105802782</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>70421104</t>
+  </si>
+  <si>
+    <t>91129728</t>
+  </si>
+  <si>
+    <t>98487970</t>
+  </si>
+  <si>
+    <t>92451637</t>
+  </si>
+  <si>
+    <t>53391</t>
+  </si>
+  <si>
+    <t>indomethacin</t>
+  </si>
+  <si>
+    <t>106150394</t>
+  </si>
+  <si>
+    <t>13004666</t>
+  </si>
+  <si>
+    <t>65223761</t>
+  </si>
+  <si>
+    <t>5316514</t>
+  </si>
+  <si>
+    <t>virus diseases</t>
+  </si>
+  <si>
+    <t>88745099</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>64634299</t>
+  </si>
+  <si>
+    <t>62046299</t>
+  </si>
+  <si>
+    <t>105849981</t>
+  </si>
+  <si>
+    <t>126814349</t>
+  </si>
+  <si>
+    <t>5028471</t>
+  </si>
+  <si>
+    <t>biopsy</t>
+  </si>
+  <si>
+    <t>123550583</t>
+  </si>
+  <si>
+    <t>62508892</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>4821498</t>
+  </si>
+  <si>
+    <t>cytokine</t>
+  </si>
+  <si>
+    <t>114559468</t>
+  </si>
+  <si>
+    <t>67401474</t>
+  </si>
+  <si>
+    <t>105434295</t>
+  </si>
+  <si>
+    <t>51683304</t>
+  </si>
+  <si>
+    <t>85625895</t>
+  </si>
+  <si>
+    <t>455077</t>
+  </si>
+  <si>
+    <t>caucasoid race</t>
+  </si>
+  <si>
+    <t>125851380</t>
+  </si>
+  <si>
+    <t>117818619</t>
+  </si>
+  <si>
+    <t>116074170</t>
+  </si>
+  <si>
+    <t>4035461</t>
+  </si>
+  <si>
+    <t>fibroblasts</t>
+  </si>
+  <si>
+    <t>60391031</t>
+  </si>
+  <si>
+    <t>109566910</t>
+  </si>
+  <si>
+    <t>4028014</t>
+  </si>
+  <si>
+    <t>medical imaging</t>
+  </si>
+  <si>
+    <t>124341340</t>
+  </si>
+  <si>
+    <t>77084777</t>
+  </si>
+  <si>
+    <t>2986464</t>
+  </si>
+  <si>
+    <t>injection procedure</t>
+  </si>
+  <si>
+    <t>60691373</t>
+  </si>
+  <si>
+    <t>62195670</t>
+  </si>
+  <si>
+    <t>2791376</t>
+  </si>
+  <si>
+    <t>ptprc (homo sapiens)</t>
+  </si>
+  <si>
+    <t>80716204</t>
+  </si>
+  <si>
+    <t>79745242</t>
+  </si>
+  <si>
+    <t>2506281</t>
+  </si>
+  <si>
+    <t>adverse effects</t>
+  </si>
+  <si>
+    <t>66480421</t>
+  </si>
+  <si>
+    <t>57263126</t>
+  </si>
+  <si>
+    <t>110413114</t>
+  </si>
+  <si>
+    <t>98838453</t>
+  </si>
+  <si>
+    <t>79212580</t>
+  </si>
+  <si>
+    <t>124968488</t>
+  </si>
+  <si>
+    <t>2449038</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>116167159</t>
+  </si>
+  <si>
+    <t>88117072</t>
+  </si>
+  <si>
+    <t>812094</t>
+  </si>
+  <si>
+    <t>operative surgical procedures</t>
+  </si>
+  <si>
+    <t>108195796</t>
+  </si>
+  <si>
+    <t>68459973</t>
+  </si>
+  <si>
+    <t>96887739</t>
+  </si>
+  <si>
+    <t>98326497</t>
   </si>
   <si>
     <t>760841</t>
@@ -431,19 +1217,28 @@
     <t>domestic rabbit</t>
   </si>
   <si>
-    <t>127088797</t>
-  </si>
-  <si>
-    <t>76087344</t>
-  </si>
-  <si>
-    <t>149404586</t>
-  </si>
-  <si>
-    <t>130725163</t>
-  </si>
-  <si>
-    <t>161804851</t>
+    <t>64337861</t>
+  </si>
+  <si>
+    <t>60690336</t>
+  </si>
+  <si>
+    <t>82955582</t>
+  </si>
+  <si>
+    <t>95605111</t>
+  </si>
+  <si>
+    <t>6435130</t>
+  </si>
+  <si>
+    <t>cell adhesion protein</t>
+  </si>
+  <si>
+    <t>107602077</t>
+  </si>
+  <si>
+    <t>113911080</t>
   </si>
   <si>
     <t>5648228</t>
@@ -452,208 +1247,307 @@
     <t>therapeutic procedure</t>
   </si>
   <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>118411241</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>125704652</t>
-  </si>
-  <si>
-    <t>142260520</t>
-  </si>
-  <si>
-    <t>176369087</t>
-  </si>
-  <si>
-    <t>176875270</t>
+    <t>97027368</t>
+  </si>
+  <si>
+    <t>does not use</t>
+  </si>
+  <si>
+    <t>59242018</t>
+  </si>
+  <si>
+    <t>90973561</t>
+  </si>
+  <si>
+    <t>52187636</t>
+  </si>
+  <si>
+    <t>75868315</t>
+  </si>
+  <si>
+    <t>110139322</t>
+  </si>
+  <si>
+    <t>52188086</t>
+  </si>
+  <si>
+    <t>110753579</t>
   </si>
   <si>
     <t>precedes</t>
   </si>
   <si>
-    <t>163261895</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>118410588</t>
-  </si>
-  <si>
-    <t>157159254</t>
-  </si>
-  <si>
-    <t>127818550</t>
+    <t>104012656</t>
+  </si>
+  <si>
+    <t>is method of</t>
+  </si>
+  <si>
+    <t>76957758</t>
+  </si>
+  <si>
+    <t>126603355</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>53145912</t>
+  </si>
+  <si>
+    <t>75074766</t>
+  </si>
+  <si>
+    <t>61427406</t>
   </si>
   <si>
     <t>does not treat</t>
   </si>
   <si>
-    <t>170219544</t>
-  </si>
-  <si>
-    <t>is method of</t>
-  </si>
-  <si>
-    <t>170219445</t>
-  </si>
-  <si>
-    <t>117518878</t>
-  </si>
-  <si>
-    <t>192812648</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>143443044</t>
-  </si>
-  <si>
-    <t>119466536</t>
-  </si>
-  <si>
-    <t>141553149</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>117516492</t>
-  </si>
-  <si>
-    <t>6107559</t>
-  </si>
-  <si>
-    <t>application procedure</t>
-  </si>
-  <si>
-    <t>164747782</t>
-  </si>
-  <si>
-    <t>122462945</t>
-  </si>
-  <si>
-    <t>111084</t>
-  </si>
-  <si>
-    <t>genes</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>190677277</t>
-  </si>
-  <si>
-    <t>166689725</t>
-  </si>
-  <si>
-    <t>174373896</t>
-  </si>
-  <si>
-    <t>137810075</t>
-  </si>
-  <si>
-    <t>121515055</t>
-  </si>
-  <si>
-    <t>188095163</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>154321904</t>
-  </si>
-  <si>
-    <t>is not administered to</t>
-  </si>
-  <si>
-    <t>181353444</t>
-  </si>
-  <si>
-    <t>119358672</t>
-  </si>
-  <si>
-    <t>117939636</t>
-  </si>
-  <si>
-    <t>143657328</t>
-  </si>
-  <si>
-    <t>124345203</t>
-  </si>
-  <si>
-    <t>142619660</t>
-  </si>
-  <si>
-    <t>135177057</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>171346273</t>
-  </si>
-  <si>
-    <t>118183332</t>
-  </si>
-  <si>
-    <t>117480370</t>
-  </si>
-  <si>
-    <t>2977165</t>
-  </si>
-  <si>
-    <t>detection</t>
-  </si>
-  <si>
-    <t>197487715</t>
-  </si>
-  <si>
-    <t>179371454</t>
-  </si>
-  <si>
-    <t>129786738</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>105769201</t>
-  </si>
-  <si>
-    <t>183913395</t>
-  </si>
-  <si>
-    <t>135175594</t>
-  </si>
-  <si>
-    <t>131859584</t>
-  </si>
-  <si>
-    <t>307661</t>
-  </si>
-  <si>
-    <t>animals</t>
-  </si>
-  <si>
-    <t>157158360</t>
-  </si>
-  <si>
-    <t>123290662</t>
+    <t>51332942</t>
+  </si>
+  <si>
+    <t>51321128</t>
+  </si>
+  <si>
+    <t>104012553</t>
+  </si>
+  <si>
+    <t>5318903</t>
+  </si>
+  <si>
+    <t>tumor necrosis factor receptor</t>
+  </si>
+  <si>
+    <t>80716326</t>
+  </si>
+  <si>
+    <t>123125893</t>
+  </si>
+  <si>
+    <t>4740228</t>
+  </si>
+  <si>
+    <t>voluntary workers</t>
+  </si>
+  <si>
+    <t>119443310</t>
+  </si>
+  <si>
+    <t>58987052</t>
+  </si>
+  <si>
+    <t>45119</t>
+  </si>
+  <si>
+    <t>inflammation</t>
+  </si>
+  <si>
+    <t>100114824</t>
+  </si>
+  <si>
+    <t>67376442</t>
+  </si>
+  <si>
+    <t>125789328</t>
+  </si>
+  <si>
+    <t>does not prevent</t>
+  </si>
+  <si>
+    <t>76368606</t>
+  </si>
+  <si>
+    <t>67030369</t>
+  </si>
+  <si>
+    <t>4042269</t>
+  </si>
+  <si>
+    <t>blood vessel</t>
+  </si>
+  <si>
+    <t>113554532</t>
+  </si>
+  <si>
+    <t>58716981</t>
+  </si>
+  <si>
+    <t>4041446</t>
+  </si>
+  <si>
+    <t>cell culture techniques</t>
+  </si>
+  <si>
+    <t>88390660</t>
+  </si>
+  <si>
+    <t>58949202</t>
+  </si>
+  <si>
+    <t>4040981</t>
+  </si>
+  <si>
+    <t>pharmacotherapy</t>
+  </si>
+  <si>
+    <t>115936948</t>
+  </si>
+  <si>
+    <t>65184505</t>
+  </si>
+  <si>
+    <t>57157922</t>
+  </si>
+  <si>
+    <t>77003226</t>
+  </si>
+  <si>
+    <t>4040861</t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>92237037</t>
+  </si>
+  <si>
+    <t>85097071</t>
+  </si>
+  <si>
+    <t>63704491</t>
+  </si>
+  <si>
+    <t>76337213</t>
+  </si>
+  <si>
+    <t>104936157</t>
+  </si>
+  <si>
+    <t>4035016</t>
+  </si>
+  <si>
+    <t>diabetic retinopathy</t>
+  </si>
+  <si>
+    <t>115288960</t>
+  </si>
+  <si>
+    <t>63013440</t>
+  </si>
+  <si>
+    <t>4034179</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>93758624</t>
+  </si>
+  <si>
+    <t>104379851</t>
+  </si>
+  <si>
+    <t>3811276</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>108394046</t>
+  </si>
+  <si>
+    <t>73083740</t>
+  </si>
+  <si>
+    <t>3805896</t>
+  </si>
+  <si>
+    <t>physical findings</t>
+  </si>
+  <si>
+    <t>86629574</t>
+  </si>
+  <si>
+    <t>127498966</t>
+  </si>
+  <si>
+    <t>3246642</t>
+  </si>
+  <si>
+    <t>introduction procedure</t>
+  </si>
+  <si>
+    <t>100806596</t>
+  </si>
+  <si>
+    <t>64567637</t>
+  </si>
+  <si>
+    <t>3246085</t>
+  </si>
+  <si>
+    <t>division (surgical procedure)</t>
+  </si>
+  <si>
+    <t>109598410</t>
+  </si>
+  <si>
+    <t>116379937</t>
+  </si>
+  <si>
+    <t>3131611</t>
+  </si>
+  <si>
+    <t>observation parameter</t>
+  </si>
+  <si>
+    <t>77563441</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>126374450</t>
+  </si>
+  <si>
+    <t>62741320</t>
+  </si>
+  <si>
+    <t>308092</t>
+  </si>
+  <si>
+    <t>agonists</t>
+  </si>
+  <si>
+    <t>113785382</t>
+  </si>
+  <si>
+    <t>113785352</t>
+  </si>
+  <si>
+    <t>58268846</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>113205648</t>
+  </si>
+  <si>
+    <t>60801202</t>
+  </si>
+  <si>
+    <t>132067148</t>
+  </si>
+  <si>
+    <t>132068143</t>
+  </si>
+  <si>
+    <t>131172637</t>
   </si>
   <si>
     <t>2510916</t>
@@ -662,808 +1556,43 @@
     <t>hypotensive</t>
   </si>
   <si>
-    <t>141380414</t>
-  </si>
-  <si>
-    <t>172550816</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>160600074</t>
-  </si>
-  <si>
-    <t>685378</t>
-  </si>
-  <si>
-    <t>persons</t>
-  </si>
-  <si>
-    <t>147265690</t>
-  </si>
-  <si>
-    <t>192456176</t>
-  </si>
-  <si>
-    <t>126777973</t>
-  </si>
-  <si>
-    <t>178262086</t>
-  </si>
-  <si>
-    <t>4034949</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t>192638873</t>
-  </si>
-  <si>
-    <t>122290334</t>
-  </si>
-  <si>
-    <t>281347</t>
-  </si>
-  <si>
-    <t>long-term care</t>
-  </si>
-  <si>
-    <t>125991062</t>
-  </si>
-  <si>
-    <t>142258255</t>
-  </si>
-  <si>
-    <t>47573</t>
-  </si>
-  <si>
-    <t>cells</t>
-  </si>
-  <si>
-    <t>171991308</t>
-  </si>
-  <si>
-    <t>does not augment</t>
-  </si>
-  <si>
-    <t>185292461</t>
-  </si>
-  <si>
-    <t>161708072</t>
-  </si>
-  <si>
-    <t>121910954</t>
-  </si>
-  <si>
-    <t>4048979</t>
-  </si>
-  <si>
-    <t>mus</t>
-  </si>
-  <si>
-    <t>129549500</t>
-  </si>
-  <si>
-    <t>118633510</t>
-  </si>
-  <si>
-    <t>165999576</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>123770029</t>
-  </si>
-  <si>
-    <t>127839426</t>
-  </si>
-  <si>
-    <t>117754891</t>
-  </si>
-  <si>
-    <t>124867909</t>
-  </si>
-  <si>
-    <t>120763647</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>179265667</t>
-  </si>
-  <si>
-    <t>128855358</t>
-  </si>
-  <si>
-    <t>184613012</t>
-  </si>
-  <si>
-    <t>149408766</t>
-  </si>
-  <si>
-    <t>119156555</t>
-  </si>
-  <si>
-    <t>617264</t>
-  </si>
-  <si>
-    <t>diarrhea</t>
-  </si>
-  <si>
-    <t>174241915</t>
-  </si>
-  <si>
-    <t>105905741</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>5127800</t>
-  </si>
-  <si>
-    <t>psychotherapy, multiple</t>
-  </si>
-  <si>
-    <t>163239480</t>
-  </si>
-  <si>
-    <t>152729968</t>
-  </si>
-  <si>
-    <t>120032565</t>
-  </si>
-  <si>
-    <t>4747186</t>
-  </si>
-  <si>
-    <t>apoptosis</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>185270388</t>
-  </si>
-  <si>
-    <t>185854391</t>
-  </si>
-  <si>
-    <t>167544687</t>
-  </si>
-  <si>
-    <t>3072277</t>
-  </si>
-  <si>
-    <t>antimicrobial susceptibility</t>
-  </si>
-  <si>
-    <t>154359362</t>
-  </si>
-  <si>
-    <t>197175154</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>125725985</t>
-  </si>
-  <si>
-    <t>2449184</t>
-  </si>
-  <si>
-    <t>tissue membrane</t>
-  </si>
-  <si>
-    <t>105769200</t>
-  </si>
-  <si>
-    <t>122463318</t>
-  </si>
-  <si>
-    <t>4028728</t>
-  </si>
-  <si>
-    <t>house mice</t>
-  </si>
-  <si>
-    <t>187184999</t>
-  </si>
-  <si>
-    <t>131748874</t>
-  </si>
-  <si>
-    <t>3763552</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>138501097</t>
-  </si>
-  <si>
-    <t>163176858</t>
-  </si>
-  <si>
-    <t>181172048</t>
-  </si>
-  <si>
-    <t>120806331</t>
-  </si>
-  <si>
-    <t>353736</t>
-  </si>
-  <si>
-    <t>wound healing</t>
-  </si>
-  <si>
-    <t>133969071</t>
-  </si>
-  <si>
-    <t>142336577</t>
-  </si>
-  <si>
-    <t>143204555</t>
-  </si>
-  <si>
-    <t>134888118</t>
-  </si>
-  <si>
-    <t>3208634</t>
-  </si>
-  <si>
-    <t>evaluation procedure</t>
-  </si>
-  <si>
-    <t>158877494</t>
-  </si>
-  <si>
-    <t>120851726</t>
-  </si>
-  <si>
-    <t>2979724</t>
-  </si>
-  <si>
-    <t>follow-up</t>
-  </si>
-  <si>
-    <t>177593858</t>
-  </si>
-  <si>
-    <t>144444286</t>
-  </si>
-  <si>
-    <t>237928</t>
-  </si>
-  <si>
-    <t>control groups</t>
-  </si>
-  <si>
-    <t>194536240</t>
-  </si>
-  <si>
-    <t>129610156</t>
-  </si>
-  <si>
-    <t>3815757</t>
-  </si>
-  <si>
-    <t>treatment protocols</t>
-  </si>
-  <si>
-    <t>143171242</t>
-  </si>
-  <si>
-    <t>118775756</t>
-  </si>
-  <si>
-    <t>165175145</t>
-  </si>
-  <si>
-    <t>84764</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>130722867</t>
-  </si>
-  <si>
-    <t>129916491</t>
-  </si>
-  <si>
-    <t>120794658</t>
-  </si>
-  <si>
-    <t>837793</t>
-  </si>
-  <si>
-    <t>asians</t>
-  </si>
-  <si>
-    <t>183960361</t>
-  </si>
-  <si>
-    <t>171912560</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>136833505</t>
-  </si>
-  <si>
-    <t>157320645</t>
-  </si>
-  <si>
-    <t>164698183</t>
-  </si>
-  <si>
-    <t>158578413</t>
-  </si>
-  <si>
-    <t>53391</t>
-  </si>
-  <si>
-    <t>indomethacin</t>
-  </si>
-  <si>
-    <t>172370754</t>
-  </si>
-  <si>
-    <t>79341477</t>
-  </si>
-  <si>
-    <t>131563863</t>
-  </si>
-  <si>
-    <t>5316514</t>
-  </si>
-  <si>
-    <t>virus diseases</t>
-  </si>
-  <si>
-    <t>154921672</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>130980686</t>
-  </si>
-  <si>
-    <t>128438306</t>
-  </si>
-  <si>
-    <t>172042090</t>
-  </si>
-  <si>
-    <t>192965514</t>
-  </si>
-  <si>
-    <t>5028471</t>
-  </si>
-  <si>
-    <t>biopsy</t>
-  </si>
-  <si>
-    <t>189765611</t>
-  </si>
-  <si>
-    <t>128924786</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>4821498</t>
-  </si>
-  <si>
-    <t>cytokine</t>
-  </si>
-  <si>
-    <t>180766791</t>
-  </si>
-  <si>
-    <t>171633119</t>
-  </si>
-  <si>
-    <t>152005633</t>
-  </si>
-  <si>
-    <t>117890781</t>
-  </si>
-  <si>
-    <t>133867064</t>
-  </si>
-  <si>
-    <t>455077</t>
-  </si>
-  <si>
-    <t>caucasoid race</t>
-  </si>
-  <si>
-    <t>191991044</t>
-  </si>
-  <si>
-    <t>183960697</t>
-  </si>
-  <si>
-    <t>182280467</t>
-  </si>
-  <si>
-    <t>4041441</t>
-  </si>
-  <si>
-    <t>diclofenac</t>
-  </si>
-  <si>
-    <t>127941431</t>
-  </si>
-  <si>
-    <t>136046157</t>
-  </si>
-  <si>
-    <t>81144630</t>
-  </si>
-  <si>
-    <t>4040861</t>
-  </si>
-  <si>
-    <t>complication</t>
-  </si>
-  <si>
-    <t>158363572</t>
-  </si>
-  <si>
-    <t>149594601</t>
-  </si>
-  <si>
-    <t>171133504</t>
-  </si>
-  <si>
-    <t>130058159</t>
-  </si>
-  <si>
-    <t>142733439</t>
-  </si>
-  <si>
-    <t>4035461</t>
-  </si>
-  <si>
-    <t>fibroblasts</t>
-  </si>
-  <si>
-    <t>126794707</t>
-  </si>
-  <si>
-    <t>175780296</t>
-  </si>
-  <si>
-    <t>4028014</t>
-  </si>
-  <si>
-    <t>medical imaging</t>
-  </si>
-  <si>
-    <t>190552795</t>
-  </si>
-  <si>
-    <t>143540510</t>
-  </si>
-  <si>
-    <t>2986464</t>
-  </si>
-  <si>
-    <t>injection procedure</t>
-  </si>
-  <si>
-    <t>127089790</t>
-  </si>
-  <si>
-    <t>128666371</t>
-  </si>
-  <si>
-    <t>2791376</t>
-  </si>
-  <si>
-    <t>ptprc (homo sapiens)</t>
-  </si>
-  <si>
-    <t>147091298</t>
-  </si>
-  <si>
-    <t>146113918</t>
-  </si>
-  <si>
-    <t>2506281</t>
-  </si>
-  <si>
-    <t>adverse effects</t>
-  </si>
-  <si>
-    <t>123678710</t>
-  </si>
-  <si>
-    <t>132837360</t>
-  </si>
-  <si>
-    <t>165040730</t>
-  </si>
-  <si>
-    <t>176641906</t>
-  </si>
-  <si>
-    <t>145667944</t>
-  </si>
-  <si>
-    <t>191179368</t>
-  </si>
-  <si>
-    <t>2449038</t>
-  </si>
-  <si>
-    <t>cohort</t>
-  </si>
-  <si>
-    <t>182367237</t>
-  </si>
-  <si>
-    <t>152581105</t>
-  </si>
-  <si>
-    <t>812094</t>
-  </si>
-  <si>
-    <t>operative surgical procedures</t>
-  </si>
-  <si>
-    <t>163077287</t>
-  </si>
-  <si>
-    <t>174415997</t>
-  </si>
-  <si>
-    <t>134874731</t>
-  </si>
-  <si>
-    <t>164524024</t>
-  </si>
-  <si>
-    <t>6435130</t>
-  </si>
-  <si>
-    <t>cell adhesion protein</t>
-  </si>
-  <si>
-    <t>173821231</t>
-  </si>
-  <si>
-    <t>180130816</t>
-  </si>
-  <si>
-    <t>5318903</t>
-  </si>
-  <si>
-    <t>tumor necrosis factor receptor</t>
-  </si>
-  <si>
-    <t>147091424</t>
-  </si>
-  <si>
-    <t>189269089</t>
-  </si>
-  <si>
-    <t>5317663</t>
-  </si>
-  <si>
-    <t>prednisolone</t>
-  </si>
-  <si>
-    <t>196101389</t>
-  </si>
-  <si>
-    <t>126012571</t>
-  </si>
-  <si>
-    <t>142873110</t>
-  </si>
-  <si>
-    <t>4824456</t>
-  </si>
-  <si>
-    <t>antigens</t>
-  </si>
-  <si>
-    <t>173821259</t>
-  </si>
-  <si>
-    <t>123014787</t>
-  </si>
-  <si>
-    <t>131477249</t>
-  </si>
-  <si>
-    <t>158612462</t>
-  </si>
-  <si>
-    <t>4740228</t>
-  </si>
-  <si>
-    <t>voluntary workers</t>
-  </si>
-  <si>
-    <t>185641711</t>
-  </si>
-  <si>
-    <t>125365960</t>
-  </si>
-  <si>
-    <t>45119</t>
-  </si>
-  <si>
-    <t>inflammation</t>
-  </si>
-  <si>
-    <t>191995044</t>
-  </si>
-  <si>
-    <t>does not prevent</t>
-  </si>
-  <si>
-    <t>133711499</t>
-  </si>
-  <si>
-    <t>142756548</t>
-  </si>
-  <si>
-    <t>166316868</t>
-  </si>
-  <si>
-    <t>130436287</t>
-  </si>
-  <si>
-    <t>4042269</t>
-  </si>
-  <si>
-    <t>blood vessel</t>
-  </si>
-  <si>
-    <t>179729240</t>
-  </si>
-  <si>
-    <t>125156513</t>
-  </si>
-  <si>
-    <t>4041446</t>
-  </si>
-  <si>
-    <t>cell culture techniques</t>
-  </si>
-  <si>
-    <t>154555828</t>
-  </si>
-  <si>
-    <t>121692524</t>
-  </si>
-  <si>
-    <t>4040981</t>
-  </si>
-  <si>
-    <t>pharmacotherapy</t>
-  </si>
-  <si>
-    <t>182145690</t>
-  </si>
-  <si>
-    <t>143369062</t>
-  </si>
-  <si>
-    <t>123598617</t>
-  </si>
-  <si>
-    <t>131571265</t>
-  </si>
-  <si>
-    <t>4035016</t>
-  </si>
-  <si>
-    <t>diabetic retinopathy</t>
-  </si>
-  <si>
-    <t>181489744</t>
-  </si>
-  <si>
-    <t>129457008</t>
-  </si>
-  <si>
-    <t>4034179</t>
-  </si>
-  <si>
-    <t>fatigue</t>
-  </si>
-  <si>
-    <t>159953724</t>
-  </si>
-  <si>
-    <t>170485707</t>
-  </si>
-  <si>
-    <t>3811276</t>
-  </si>
-  <si>
-    <t>favor</t>
-  </si>
-  <si>
-    <t>174574121</t>
-  </si>
-  <si>
-    <t>139401365</t>
-  </si>
-  <si>
-    <t>3805896</t>
-  </si>
-  <si>
-    <t>physical findings</t>
-  </si>
-  <si>
-    <t>152972615</t>
-  </si>
-  <si>
-    <t>193652842</t>
-  </si>
-  <si>
-    <t>3246642</t>
-  </si>
-  <si>
-    <t>introduction procedure</t>
-  </si>
-  <si>
-    <t>167004284</t>
-  </si>
-  <si>
-    <t>130964083</t>
-  </si>
-  <si>
-    <t>3246085</t>
-  </si>
-  <si>
-    <t>division (surgical procedure)</t>
-  </si>
-  <si>
-    <t>175776206</t>
-  </si>
-  <si>
-    <t>182512624</t>
-  </si>
-  <si>
-    <t>3131611</t>
-  </si>
-  <si>
-    <t>observation parameter</t>
-  </si>
-  <si>
-    <t>192592429</t>
-  </si>
-  <si>
-    <t>143961365</t>
-  </si>
-  <si>
-    <t>129222423</t>
+    <t>106331327</t>
+  </si>
+  <si>
+    <t>74994684</t>
+  </si>
+  <si>
+    <t>94423106</t>
+  </si>
+  <si>
+    <t>2449328</t>
+  </si>
+  <si>
+    <t>cell injury</t>
+  </si>
+  <si>
+    <t>121385882</t>
+  </si>
+  <si>
+    <t>56911792</t>
+  </si>
+  <si>
+    <t>105701536</t>
+  </si>
+  <si>
+    <t>113791857</t>
+  </si>
+  <si>
+    <t>2406105</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>132253930</t>
+  </si>
+  <si>
+    <t>133384588</t>
   </si>
   <si>
     <t>3086893</t>
@@ -1472,103 +1601,13 @@
     <t>adverse reactions</t>
   </si>
   <si>
-    <t>155118716</t>
-  </si>
-  <si>
-    <t>189626613</t>
-  </si>
-  <si>
-    <t>192615361</t>
-  </si>
-  <si>
-    <t>308092</t>
-  </si>
-  <si>
-    <t>agonists</t>
-  </si>
-  <si>
-    <t>180006820</t>
-  </si>
-  <si>
-    <t>180006796</t>
-  </si>
-  <si>
-    <t>124714769</t>
-  </si>
-  <si>
-    <t>2940375</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>179376084</t>
-  </si>
-  <si>
-    <t>198275682</t>
-  </si>
-  <si>
-    <t>198276679</t>
-  </si>
-  <si>
-    <t>197375579</t>
-  </si>
-  <si>
-    <t>123777315</t>
-  </si>
-  <si>
-    <t>2449328</t>
-  </si>
-  <si>
-    <t>cell injury</t>
-  </si>
-  <si>
-    <t>187530667</t>
-  </si>
-  <si>
-    <t>179995377</t>
-  </si>
-  <si>
-    <t>123308876</t>
-  </si>
-  <si>
-    <t>171895372</t>
-  </si>
-  <si>
-    <t>2406105</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>198444752</t>
-  </si>
-  <si>
-    <t>199577334</t>
-  </si>
-  <si>
-    <t>2395251</t>
-  </si>
-  <si>
-    <t>toxic effect</t>
-  </si>
-  <si>
-    <t>126262844</t>
-  </si>
-  <si>
-    <t>198800047</t>
-  </si>
-  <si>
-    <t>185292742</t>
-  </si>
-  <si>
-    <t>122027891</t>
-  </si>
-  <si>
-    <t>127227435</t>
-  </si>
-  <si>
-    <t>151042890</t>
+    <t>88937726</t>
+  </si>
+  <si>
+    <t>123421306</t>
+  </si>
+  <si>
+    <t>126462173</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1812,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58.0</v>
+        <v>45.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1820,28 +1859,10 @@
       <c r="P2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45.0</v>
+        <v>38.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1853,45 +1874,45 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" t="s">
-        <v>77</v>
-      </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1903,13 +1924,13 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -1921,19 +1942,19 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
         <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
         <v>78</v>
@@ -1941,7 +1962,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1953,13 +1974,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -1971,27 +1992,21 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -2003,51 +2018,111 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" t="s">
         <v>93</v>
       </c>
-      <c r="F6" t="s">
+      <c r="V6" t="s">
         <v>94</v>
       </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="W6" t="s">
         <v>95</v>
       </c>
-      <c r="L6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
         <v>96</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Z6" t="s">
         <v>97</v>
       </c>
-      <c r="O6" t="s">
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
-      <c r="P6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="AB6" t="s">
         <v>99</v>
       </c>
-      <c r="R6" t="s">
-        <v>62</v>
+      <c r="AC6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33.0</v>
+        <v>21.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2059,13 +2134,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -2077,21 +2152,27 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" t="s">
         <v>102</v>
       </c>
-      <c r="L7" t="s">
-        <v>74</v>
-      </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="N7" t="s">
         <v>78</v>
       </c>
+      <c r="O7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -2103,10 +2184,10 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
@@ -2121,88 +2202,22 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" t="s">
-        <v>107</v>
-      </c>
-      <c r="S8" t="s">
-        <v>113</v>
-      </c>
-      <c r="T8" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" t="s">
-        <v>114</v>
-      </c>
-      <c r="V8" t="s">
-        <v>115</v>
-      </c>
-      <c r="W8" t="s">
-        <v>116</v>
-      </c>
-      <c r="X8" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -2219,13 +2234,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -2237,22 +2252,22 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2269,13 +2284,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -2287,27 +2302,27 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="O10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2319,57 +2334,51 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="s">
+        <v>134</v>
+      </c>
+      <c r="N11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" t="s">
         <v>137</v>
       </c>
-      <c r="F11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" t="s">
-        <v>140</v>
-      </c>
-      <c r="N11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11" t="s">
-        <v>141</v>
-      </c>
-      <c r="P11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>142</v>
-      </c>
       <c r="R11" t="s">
-        <v>76</v>
-      </c>
-      <c r="S11" t="s">
-        <v>143</v>
-      </c>
-      <c r="T11" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -2381,13 +2390,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -2399,111 +2408,21 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
-      </c>
-      <c r="O12" t="s">
-        <v>150</v>
-      </c>
-      <c r="P12" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>151</v>
-      </c>
-      <c r="R12" t="s">
-        <v>109</v>
-      </c>
-      <c r="S12" t="s">
-        <v>152</v>
-      </c>
-      <c r="T12" t="s">
-        <v>153</v>
-      </c>
-      <c r="U12" t="s">
-        <v>154</v>
-      </c>
-      <c r="V12" t="s">
-        <v>155</v>
-      </c>
-      <c r="W12" t="s">
-        <v>156</v>
-      </c>
-      <c r="X12" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2515,39 +2434,45 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" t="s">
         <v>146</v>
       </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" t="s">
-        <v>173</v>
-      </c>
-      <c r="L13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" t="s">
-        <v>174</v>
-      </c>
-      <c r="N13" t="s">
-        <v>74</v>
+      <c r="P13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2559,13 +2484,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -2577,45 +2502,81 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>153</v>
+      </c>
+      <c r="R14" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" t="s">
+        <v>154</v>
+      </c>
+      <c r="T14" t="s">
         <v>88</v>
       </c>
-      <c r="O14" t="s">
-        <v>180</v>
-      </c>
-      <c r="P14" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>181</v>
-      </c>
-      <c r="R14" t="s">
-        <v>125</v>
-      </c>
-      <c r="S14" t="s">
-        <v>182</v>
-      </c>
-      <c r="T14" t="s">
-        <v>68</v>
-      </c>
       <c r="U14" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="V14" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -2627,13 +2588,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -2645,75 +2606,21 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="N15" t="s">
         <v>64</v>
       </c>
-      <c r="O15" t="s">
-        <v>189</v>
-      </c>
-      <c r="P15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>190</v>
-      </c>
-      <c r="R15" t="s">
-        <v>74</v>
-      </c>
-      <c r="S15" t="s">
-        <v>191</v>
-      </c>
-      <c r="T15" t="s">
-        <v>62</v>
-      </c>
-      <c r="U15" t="s">
-        <v>192</v>
-      </c>
-      <c r="V15" t="s">
-        <v>97</v>
-      </c>
-      <c r="W15" t="s">
-        <v>193</v>
-      </c>
-      <c r="X15" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2725,13 +2632,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -2743,27 +2650,33 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="M16" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O16" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>171</v>
+      </c>
+      <c r="R16" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2775,13 +2688,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -2793,33 +2706,45 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="M17" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="P17" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="Q17" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="R17" t="s">
-        <v>66</v>
+        <v>133</v>
+      </c>
+      <c r="S17" t="s">
+        <v>180</v>
+      </c>
+      <c r="T17" t="s">
+        <v>181</v>
+      </c>
+      <c r="U17" t="s">
+        <v>182</v>
+      </c>
+      <c r="V17" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -2831,13 +2756,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="F18" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -2849,21 +2774,21 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="M18" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -2875,13 +2800,13 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -2893,22 +2818,70 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" t="s">
+        <v>190</v>
+      </c>
+      <c r="N19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" t="s">
+        <v>191</v>
+      </c>
+      <c r="P19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>193</v>
+      </c>
+      <c r="R19" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" t="s">
+        <v>194</v>
+      </c>
+      <c r="T19" t="s">
         <v>62</v>
       </c>
-      <c r="M19" t="s">
-        <v>217</v>
-      </c>
-      <c r="N19" t="s">
-        <v>218</v>
-      </c>
-      <c r="O19" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" t="s">
-        <v>62</v>
+      <c r="U19" t="s">
+        <v>195</v>
+      </c>
+      <c r="V19" t="s">
+        <v>133</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -2925,13 +2898,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -2943,33 +2916,21 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="M20" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" t="s">
-        <v>224</v>
-      </c>
-      <c r="P20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>225</v>
-      </c>
-      <c r="R20" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -2981,13 +2942,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -2999,21 +2960,27 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="M21" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s">
-        <v>74</v>
+        <v>200</v>
+      </c>
+      <c r="O21" t="s">
+        <v>210</v>
+      </c>
+      <c r="P21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -3025,13 +2992,13 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -3043,21 +3010,33 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="M22" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s">
-        <v>74</v>
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>216</v>
+      </c>
+      <c r="R22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -3069,13 +3048,13 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F23" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -3087,33 +3066,33 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="M23" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="O23" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="Q23" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="R23" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -3125,13 +3104,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -3143,27 +3122,39 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="M24" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>64</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>229</v>
+      </c>
+      <c r="R24" t="s">
+        <v>172</v>
+      </c>
+      <c r="S24" t="s">
+        <v>230</v>
+      </c>
+      <c r="T24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -3175,13 +3166,13 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -3193,34 +3184,34 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="M25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="O25" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="Q25" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="R25" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="S25" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="T25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -3237,13 +3228,13 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F26" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -3255,34 +3246,16 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O26" t="s">
-        <v>257</v>
-      </c>
-      <c r="P26" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>258</v>
-      </c>
-      <c r="R26" t="s">
-        <v>66</v>
-      </c>
-      <c r="S26" t="s">
-        <v>259</v>
-      </c>
-      <c r="T26" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
@@ -3299,13 +3272,13 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -3317,16 +3290,22 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="M27" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="N27" t="s">
-        <v>264</v>
+        <v>90</v>
+      </c>
+      <c r="O27" t="s">
+        <v>247</v>
+      </c>
+      <c r="P27" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -3343,13 +3322,13 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -3361,22 +3340,22 @@
         <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="M28" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="O28" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="P28" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -3393,13 +3372,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -3411,22 +3390,22 @@
         <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="O29" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="P29" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -3443,13 +3422,13 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -3461,22 +3440,16 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="N30" t="s">
-        <v>280</v>
-      </c>
-      <c r="O30" t="s">
-        <v>281</v>
-      </c>
-      <c r="P30" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31">
@@ -3493,13 +3466,13 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -3511,16 +3484,40 @@
         <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="M31" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="N31" t="s">
-        <v>66</v>
+        <v>102</v>
+      </c>
+      <c r="O31" t="s">
+        <v>268</v>
+      </c>
+      <c r="P31" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>269</v>
+      </c>
+      <c r="R31" t="s">
+        <v>104</v>
+      </c>
+      <c r="S31" t="s">
+        <v>270</v>
+      </c>
+      <c r="T31" t="s">
+        <v>94</v>
+      </c>
+      <c r="U31" t="s">
+        <v>271</v>
+      </c>
+      <c r="V31" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32">
@@ -3537,13 +3534,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -3555,16 +3552,22 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="M32" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="N32" t="s">
-        <v>78</v>
+        <v>60</v>
+      </c>
+      <c r="O32" t="s">
+        <v>276</v>
+      </c>
+      <c r="P32" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="33">
@@ -3581,13 +3584,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -3599,28 +3602,16 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="M33" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="N33" t="s">
-        <v>97</v>
-      </c>
-      <c r="O33" t="s">
-        <v>294</v>
-      </c>
-      <c r="P33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>295</v>
-      </c>
-      <c r="R33" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
@@ -3637,13 +3628,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G34" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -3655,28 +3646,28 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="N34" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="O34" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="P34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q34" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="R34" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
@@ -3693,13 +3684,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -3711,16 +3702,28 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="M35" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="N35" t="s">
-        <v>74</v>
+        <v>102</v>
+      </c>
+      <c r="O35" t="s">
+        <v>291</v>
+      </c>
+      <c r="P35" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>292</v>
+      </c>
+      <c r="R35" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="36">
@@ -3737,13 +3740,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -3755,16 +3758,16 @@
         <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M36" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="N36" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -3781,13 +3784,13 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
@@ -3799,21 +3802,21 @@
         <v>58</v>
       </c>
       <c r="K37" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="M37" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -3825,13 +3828,13 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F38" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s">
         <v>56</v>
@@ -3843,27 +3846,21 @@
         <v>58</v>
       </c>
       <c r="K38" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="M38" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="N38" t="s">
-        <v>74</v>
-      </c>
-      <c r="O38" t="s">
-        <v>318</v>
-      </c>
-      <c r="P38" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -3875,13 +3872,13 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F39" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>272</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -3893,27 +3890,33 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s">
-        <v>280</v>
+        <v>68</v>
       </c>
       <c r="M39" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="O39" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="P39" t="s">
-        <v>68</v>
+        <v>181</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>310</v>
+      </c>
+      <c r="R39" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
@@ -3925,13 +3928,13 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -3943,16 +3946,40 @@
         <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s">
         <v>74</v>
       </c>
       <c r="M40" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="N40" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="O40" t="s">
+        <v>316</v>
+      </c>
+      <c r="P40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>317</v>
+      </c>
+      <c r="R40" t="s">
+        <v>104</v>
+      </c>
+      <c r="S40" t="s">
+        <v>318</v>
+      </c>
+      <c r="T40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U40" t="s">
+        <v>319</v>
+      </c>
+      <c r="V40" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="41">
@@ -3969,13 +3996,13 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F41" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G41" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -3987,28 +4014,22 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="M41" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="N41" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="O41" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>333</v>
-      </c>
-      <c r="R41" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42">
@@ -4025,13 +4046,13 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -4043,22 +4064,16 @@
         <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="M42" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="N42" t="s">
-        <v>92</v>
-      </c>
-      <c r="O42" t="s">
-        <v>338</v>
-      </c>
-      <c r="P42" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43">
@@ -4075,13 +4090,13 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F43" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -4093,34 +4108,28 @@
         <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s">
-        <v>342</v>
+        <v>90</v>
       </c>
       <c r="M43" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="N43" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="O43" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="P43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q43" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="R43" t="s">
-        <v>111</v>
-      </c>
-      <c r="S43" t="s">
-        <v>346</v>
-      </c>
-      <c r="T43" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -4137,13 +4146,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F44" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G44" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -4155,16 +4164,22 @@
         <v>58</v>
       </c>
       <c r="K44" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="L44" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="M44" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="N44" t="s">
-        <v>351</v>
+        <v>78</v>
+      </c>
+      <c r="O44" t="s">
+        <v>339</v>
+      </c>
+      <c r="P44" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="45">
@@ -4181,13 +4196,13 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
@@ -4199,34 +4214,34 @@
         <v>58</v>
       </c>
       <c r="K45" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="M45" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="N45" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="O45" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="P45" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="Q45" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="R45" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="S45" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="T45" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
@@ -4243,13 +4258,13 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F46" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -4261,22 +4276,16 @@
         <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="M46" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N46" t="s">
-        <v>74</v>
-      </c>
-      <c r="O46" t="s">
-        <v>363</v>
-      </c>
-      <c r="P46" t="s">
-        <v>78</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47">
@@ -4293,10 +4302,10 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F47" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -4311,22 +4320,34 @@
         <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="L47" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="M47" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="N47" t="s">
-        <v>90</v>
+        <v>257</v>
       </c>
       <c r="O47" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="P47" t="s">
-        <v>92</v>
+        <v>104</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>358</v>
+      </c>
+      <c r="R47" t="s">
+        <v>181</v>
+      </c>
+      <c r="S47" t="s">
+        <v>359</v>
+      </c>
+      <c r="T47" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="48">
@@ -4343,13 +4364,13 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F48" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H48" t="s">
         <v>56</v>
@@ -4361,34 +4382,22 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L48" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="M48" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="N48" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="O48" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="P48" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>374</v>
-      </c>
-      <c r="R48" t="s">
-        <v>111</v>
-      </c>
-      <c r="S48" t="s">
-        <v>375</v>
-      </c>
-      <c r="T48" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49">
@@ -4405,13 +4414,13 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
@@ -4423,16 +4432,16 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="M49" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="N49" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50">
@@ -4449,13 +4458,13 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F50" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G50" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
@@ -4467,16 +4476,16 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M50" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="N50" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51">
@@ -4493,13 +4502,13 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F51" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H51" t="s">
         <v>56</v>
@@ -4511,16 +4520,16 @@
         <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="L51" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="M51" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="N51" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
@@ -4537,13 +4546,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F52" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="G52" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="H52" t="s">
         <v>56</v>
@@ -4555,16 +4564,16 @@
         <v>58</v>
       </c>
       <c r="K52" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="L52" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="M52" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="N52" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53">
@@ -4581,10 +4590,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="F53" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -4599,40 +4608,40 @@
         <v>58</v>
       </c>
       <c r="K53" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="L53" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="M53" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="N53" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="O53" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="P53" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="Q53" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="R53" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="S53" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="T53" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="U53" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="V53" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
@@ -4649,13 +4658,13 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F54" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H54" t="s">
         <v>56</v>
@@ -4667,16 +4676,16 @@
         <v>58</v>
       </c>
       <c r="K54" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="M54" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="N54" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55">
@@ -4693,13 +4702,13 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="F55" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G55" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H55" t="s">
         <v>56</v>
@@ -4711,28 +4720,28 @@
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="L55" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="M55" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="N55" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="O55" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="P55" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="Q55" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="R55" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -4749,13 +4758,13 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="F56" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
         <v>56</v>
@@ -4767,16 +4776,28 @@
         <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="L56" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="M56" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="N56" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="O56" t="s">
+        <v>403</v>
+      </c>
+      <c r="P56" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>404</v>
+      </c>
+      <c r="R56" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="57">
@@ -4793,10 +4814,10 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F57" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G57" t="s">
         <v>52</v>
@@ -4811,16 +4832,16 @@
         <v>58</v>
       </c>
       <c r="K57" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="M57" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="N57" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58">
@@ -4837,40 +4858,124 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
+        <v>409</v>
+      </c>
+      <c r="F58" t="s">
+        <v>410</v>
+      </c>
+      <c r="G58" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" t="s">
+        <v>411</v>
+      </c>
+      <c r="L58" t="s">
+        <v>412</v>
+      </c>
+      <c r="M58" t="s">
+        <v>413</v>
+      </c>
+      <c r="N58" t="s">
+        <v>90</v>
+      </c>
+      <c r="O58" t="s">
+        <v>414</v>
+      </c>
+      <c r="P58" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>415</v>
+      </c>
+      <c r="R58" t="s">
+        <v>88</v>
+      </c>
+      <c r="S58" t="s">
+        <v>416</v>
+      </c>
+      <c r="T58" t="s">
+        <v>90</v>
+      </c>
+      <c r="U58" t="s">
+        <v>417</v>
+      </c>
+      <c r="V58" t="s">
+        <v>97</v>
+      </c>
+      <c r="W58" t="s">
         <v>418</v>
       </c>
-      <c r="F58" t="s">
+      <c r="X58" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y58" t="s">
         <v>419</v>
       </c>
-      <c r="G58" t="s">
-        <v>52</v>
-      </c>
-      <c r="H58" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" t="s">
-        <v>58</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="Z58" t="s">
         <v>420</v>
       </c>
-      <c r="L58" t="s">
-        <v>115</v>
-      </c>
-      <c r="M58" t="s">
+      <c r="AA58" t="s">
         <v>421</v>
       </c>
-      <c r="N58" t="s">
-        <v>74</v>
-      </c>
-      <c r="O58" t="s">
+      <c r="AB58" t="s">
         <v>422</v>
       </c>
-      <c r="P58" t="s">
-        <v>68</v>
+      <c r="AC58" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>425</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>426</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>427</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>428</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>430</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>431</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59">
@@ -4887,10 +4992,10 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="F59" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="G59" t="s">
         <v>52</v>
@@ -4905,28 +5010,16 @@
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M59" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="N59" t="s">
-        <v>125</v>
-      </c>
-      <c r="O59" t="s">
-        <v>427</v>
-      </c>
-      <c r="P59" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>428</v>
-      </c>
-      <c r="R59" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60">
@@ -4943,13 +5036,13 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F60" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H60" t="s">
         <v>56</v>
@@ -4961,16 +5054,16 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="L60" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="M60" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="N60" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61">
@@ -4987,10 +5080,10 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="F61" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G61" t="s">
         <v>58</v>
@@ -5005,34 +5098,34 @@
         <v>58</v>
       </c>
       <c r="K61" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L61" t="s">
-        <v>436</v>
+        <v>241</v>
       </c>
       <c r="M61" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="N61" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="O61" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="P61" t="s">
-        <v>74</v>
+        <v>446</v>
       </c>
       <c r="Q61" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="R61" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="T61" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62">
@@ -5049,13 +5142,13 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F62" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G62" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="H62" t="s">
         <v>56</v>
@@ -5067,16 +5160,16 @@
         <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="M62" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="N62" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63">
@@ -5093,13 +5186,13 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F63" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="G63" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H63" t="s">
         <v>56</v>
@@ -5111,16 +5204,16 @@
         <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="L63" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M63" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="N63" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64">
@@ -5137,13 +5230,13 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F64" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G64" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H64" t="s">
         <v>56</v>
@@ -5155,28 +5248,28 @@
         <v>58</v>
       </c>
       <c r="K64" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L64" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M64" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="N64" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="O64" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P64" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="Q64" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="R64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
@@ -5193,10 +5286,10 @@
         <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F65" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G65" t="s">
         <v>58</v>
@@ -5211,16 +5304,34 @@
         <v>58</v>
       </c>
       <c r="K65" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="L65" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="M65" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="N65" t="s">
-        <v>111</v>
+        <v>94</v>
+      </c>
+      <c r="O65" t="s">
+        <v>467</v>
+      </c>
+      <c r="P65" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>468</v>
+      </c>
+      <c r="R65" t="s">
+        <v>104</v>
+      </c>
+      <c r="S65" t="s">
+        <v>469</v>
+      </c>
+      <c r="T65" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="66">
@@ -5237,10 +5348,10 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F66" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G66" t="s">
         <v>58</v>
@@ -5255,16 +5366,16 @@
         <v>58</v>
       </c>
       <c r="K66" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="L66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M66" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="N66" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67">
@@ -5281,13 +5392,13 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="F67" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="G67" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H67" t="s">
         <v>56</v>
@@ -5299,16 +5410,16 @@
         <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="L67" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M67" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="N67" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68">
@@ -5325,13 +5436,13 @@
         <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="F68" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s">
         <v>56</v>
@@ -5343,16 +5454,16 @@
         <v>58</v>
       </c>
       <c r="K68" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="L68" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="M68" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="N68" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
@@ -5369,13 +5480,13 @@
         <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F69" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="G69" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="H69" t="s">
         <v>56</v>
@@ -5387,16 +5498,16 @@
         <v>58</v>
       </c>
       <c r="K69" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="L69" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="M69" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="N69" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
@@ -5413,13 +5524,13 @@
         <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="F70" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="G70" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H70" t="s">
         <v>56</v>
@@ -5431,16 +5542,16 @@
         <v>58</v>
       </c>
       <c r="K70" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="L70" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M70" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="N70" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71">
@@ -5457,13 +5568,13 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="F71" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G71" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="H71" t="s">
         <v>56</v>
@@ -5475,22 +5586,16 @@
         <v>58</v>
       </c>
       <c r="K71" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="L71" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="M71" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="N71" t="s">
-        <v>218</v>
-      </c>
-      <c r="O71" t="s">
-        <v>483</v>
-      </c>
-      <c r="P71" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72">
@@ -5507,10 +5612,10 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="F72" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="G72" t="s">
         <v>58</v>
@@ -5525,22 +5630,22 @@
         <v>58</v>
       </c>
       <c r="K72" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="L72" t="s">
-        <v>62</v>
+        <v>497</v>
       </c>
       <c r="M72" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="N72" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="O72" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="P72" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73">
@@ -5557,10 +5662,10 @@
         <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="F73" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="G73" t="s">
         <v>52</v>
@@ -5575,22 +5680,22 @@
         <v>58</v>
       </c>
       <c r="K73" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="L73" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M73" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="N73" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="O73" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="P73" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
@@ -5607,10 +5712,10 @@
         <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F74" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="G74" t="s">
         <v>58</v>
@@ -5625,34 +5730,34 @@
         <v>58</v>
       </c>
       <c r="K74" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="L74" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="M74" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="N74" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O74" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="P74" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="Q74" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="R74" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="S74" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="T74" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75">
@@ -5669,10 +5774,10 @@
         <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="F75" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="G75" t="s">
         <v>58</v>
@@ -5687,28 +5792,22 @@
         <v>58</v>
       </c>
       <c r="K75" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="L75" t="s">
-        <v>62</v>
+        <v>497</v>
       </c>
       <c r="M75" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="N75" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O75" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="P75" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>506</v>
-      </c>
-      <c r="R75" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76">
@@ -5725,13 +5824,13 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="F76" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="G76" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H76" t="s">
         <v>56</v>
@@ -5743,16 +5842,28 @@
         <v>58</v>
       </c>
       <c r="K76" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="L76" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="M76" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="N76" t="s">
-        <v>78</v>
+        <v>102</v>
+      </c>
+      <c r="O76" t="s">
+        <v>521</v>
+      </c>
+      <c r="P76" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>522</v>
+      </c>
+      <c r="R76" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="77">
@@ -5769,13 +5880,13 @@
         <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="F77" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="G77" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H77" t="s">
         <v>56</v>
@@ -5787,40 +5898,66 @@
         <v>58</v>
       </c>
       <c r="K77" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="L77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M77" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="N77" t="s">
-        <v>60</v>
-      </c>
-      <c r="O77" t="s">
-        <v>515</v>
-      </c>
-      <c r="P77" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>516</v>
-      </c>
-      <c r="R77" t="s">
-        <v>125</v>
-      </c>
-      <c r="S77" t="s">
-        <v>517</v>
-      </c>
-      <c r="T77" t="s">
-        <v>111</v>
-      </c>
-      <c r="U77" t="s">
-        <v>518</v>
-      </c>
-      <c r="V77" t="s">
-        <v>264</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" t="s">
+        <v>527</v>
+      </c>
+      <c r="F78" t="s">
+        <v>528</v>
+      </c>
+      <c r="G78" t="s">
+        <v>58</v>
+      </c>
+      <c r="H78" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78" t="s">
+        <v>58</v>
+      </c>
+      <c r="K78" t="s">
+        <v>529</v>
+      </c>
+      <c r="L78" t="s">
+        <v>102</v>
+      </c>
+      <c r="M78" t="s">
+        <v>530</v>
+      </c>
+      <c r="N78" t="s">
+        <v>104</v>
+      </c>
+      <c r="O78" t="s">
+        <v>531</v>
+      </c>
+      <c r="P78" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
